--- a/biology/Zoologie/Copelata/Copelata.xlsx
+++ b/biology/Zoologie/Copelata/Copelata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Copelata sont un ordre de tuniciers, le seul de la classe des tuniciers pélagiques Appendicularia (monotypique), les appendiculaires ou larvacés.
 Contrairement aux autres tuniciers, le plan d’organisation larvaire se maintient chez l’adulte (néoténie). Ils rappellent morphologiquement des têtards, et leur queue leur sert d’appendice propulseur. Ils sont hermaphrodites et ne se reproduisent que par voie sexuée[réf. souhaitée]. 
@@ -512,9 +524,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (30 janvier 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (30 janvier 2021) :
 famille Fritillariidae Lohmann, 1915
 famille Kowalevskiidae Lahille, 1888
 famille Oikopleuridae Lohmann, 1915</t>
